--- a/Deep/Energie.xlsx
+++ b/Deep/Energie.xlsx
@@ -5,42 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstinglhamber/Desktop/Github - Projects/ParticuleGameV2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstinglhamber/Desktop/Github - Projects/ParticuleGameV2/Deep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD00EA-73B2-7649-9E52-7489635EA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB420E-1C8C-974D-B453-869E0D4F81B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7561177D-AFE9-A540-86E4-113EBEEF3F83}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7561177D-AFE9-A540-86E4-113EBEEF3F83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$2:$A$35</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$A$2:$A$35</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$A$2:$A$35</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$A$2:$A$35</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$A$2:$A$35</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$2:$B$37</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Feuil1!$A$1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$A$1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -62,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Up_quark</t>
   </si>
@@ -206,87 +189,6 @@
   </si>
   <si>
     <t>Colonne2</t>
-  </si>
-  <si>
-    <t>RAPPORT DÉTAILLÉ</t>
-  </si>
-  <si>
-    <t>Statistiques de la régression</t>
-  </si>
-  <si>
-    <t>Coefficient de détermination multiple</t>
-  </si>
-  <si>
-    <t>Coefficient de détermination R^2</t>
-  </si>
-  <si>
-    <t>Erreur-type</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANALYSE DE VARIANCE</t>
-  </si>
-  <si>
-    <t>Régression</t>
-  </si>
-  <si>
-    <t>Résidus</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Constante</t>
-  </si>
-  <si>
-    <t>Degré de liberté</t>
-  </si>
-  <si>
-    <t>Somme des carrés</t>
-  </si>
-  <si>
-    <t>Moyenne des carrés</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Valeur critique de F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>Statistique t</t>
-  </si>
-  <si>
-    <t>Probabilité</t>
-  </si>
-  <si>
-    <t>Limite inférieure pour seuil de confiance = 95%</t>
-  </si>
-  <si>
-    <t>Limite supérieure pour seuil de confiance = 95%</t>
-  </si>
-  <si>
-    <t>Limite inférieure pour seuil de confiance =  95,0%</t>
-  </si>
-  <si>
-    <t>Limite supérieure pour seuil de confiance =  95,0%</t>
-  </si>
-  <si>
-    <t>Variable X 1</t>
-  </si>
-  <si>
-    <t>ANALYSE DES RÉSIDUS</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Prévisions pour Y</t>
   </si>
   <si>
     <t>Colonne3</t>
@@ -323,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,14 +235,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -380,31 +274,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,14 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,571 +308,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Y</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$D$2:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$2:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>139.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>891.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>938.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>939.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1019.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1115.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1189.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1232</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1314.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010.26</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2112.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2286.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2453.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2467.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2695.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2983.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3621.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4180</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5325.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5415.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5619.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5791.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5810.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6046.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9460.2999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C9B8-DE46-ADA7-7D1361EE7826}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Prévisions pour Y</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$D$2:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil2!$B$25:$B$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>-1115.7895462184872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-898.44540259740245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-681.10125897631769</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-463.75711535523283</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-246.41297173414796</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-29.068828113063319</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>188.27531550802155</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>405.61945912910642</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>622.96360275019128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>840.30774637127615</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1057.6518899923608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1274.9960336134454</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1492.3401772345305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1709.6843208556152</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1927.0284644767003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2144.3726080977849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2361.7167517188695</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2579.0608953399546</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2796.4050389610393</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3013.7491825821244</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3231.0933262032086</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3448.4374698242937</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3665.7816134453788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3883.1257570664629</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4100.469900687548</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4317.8140443086331</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4535.1581879297182</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4752.5023315508024</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4969.8464751718875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5187.1906187929726</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5404.5347624140568</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5621.8789060351419</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5839.223049656227</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6056.5671932773112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9B8-DE46-ADA7-7D1361EE7826}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="999384959"/>
-        <c:axId val="999386607"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="999384959"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="999386607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="999386607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="999384959"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1209,7 +510,7 @@
                   <c:v>139.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>891.66</c:v>
+                  <c:v>493.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>938.2</c:v>
@@ -1383,6 +684,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1426,6 +757,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2010,57 +1372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3073400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EA851D-D6C4-CD42-BF24-5F385E252439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2091,7 +1412,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52FF8211-4AEC-574D-B6B8-210056A9A29F}" name="Tableau1" displayName="Tableau1" ref="A1:E45" totalsRowShown="0">
   <autoFilter ref="A1:E45" xr:uid="{52FF8211-4AEC-574D-B6B8-210056A9A29F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E45">
     <sortCondition ref="B1:B45"/>
   </sortState>
   <tableColumns count="5">
@@ -2401,629 +1722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24151C1F-937A-C240-B9C3-1B30CFF7D92C}">
-  <dimension ref="A1:I58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.9319609275871934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.86855117054918185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.86444339462884379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="7">
-        <v>855.05379244096082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>154587915.21798748</v>
-      </c>
-      <c r="D12" s="7">
-        <v>154587915.21798748</v>
-      </c>
-      <c r="E12" s="7">
-        <v>211.44073761396913</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.1878705245436929E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="7">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
-        <v>23395743.614965431</v>
-      </c>
-      <c r="D13" s="7">
-        <v>731116.98796766973</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="8">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8">
-        <v>177983658.83295292</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="7">
-        <v>-1333.1336898395721</v>
-      </c>
-      <c r="C17" s="7">
-        <v>299.87243921959583</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-4.4456692762729073</v>
-      </c>
-      <c r="E17" s="7">
-        <v>9.8684431769134788E-5</v>
-      </c>
-      <c r="F17" s="7">
-        <v>-1943.9538600706794</v>
-      </c>
-      <c r="G17" s="7">
-        <v>-722.31351960846473</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-1943.9538600706794</v>
-      </c>
-      <c r="I17" s="7">
-        <v>-722.31351960846473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="8">
-        <v>217.34414362108481</v>
-      </c>
-      <c r="C18" s="8">
-        <v>14.946985387784187</v>
-      </c>
-      <c r="D18" s="8">
-        <v>14.541001946701238</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1.1878705245436929E-15</v>
-      </c>
-      <c r="F18" s="8">
-        <v>186.8981307004963</v>
-      </c>
-      <c r="G18" s="8">
-        <v>247.79015654167333</v>
-      </c>
-      <c r="H18" s="8">
-        <v>186.8981307004963</v>
-      </c>
-      <c r="I18" s="8">
-        <v>247.79015654167333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
-        <v>-1115.7895462184872</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1118.0895462184872</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7">
-        <v>-898.44540259740245</v>
-      </c>
-      <c r="C26" s="7">
-        <v>900.7454025974024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7">
-        <v>-681.10125897631769</v>
-      </c>
-      <c r="C27" s="7">
-        <v>685.90125897631765</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7">
-        <v>-463.75711535523283</v>
-      </c>
-      <c r="C28" s="7">
-        <v>468.55711535523284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>5</v>
-      </c>
-      <c r="B29" s="7">
-        <v>-246.41297173414796</v>
-      </c>
-      <c r="C29" s="7">
-        <v>341.41297173414796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7">
-        <v>-29.068828113063319</v>
-      </c>
-      <c r="C30" s="7">
-        <v>124.06882811306332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7">
-        <v>188.27531550802155</v>
-      </c>
-      <c r="C31" s="7">
-        <v>-48.775315508021549</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7">
-        <v>405.61945912910642</v>
-      </c>
-      <c r="C32" s="7">
-        <v>486.04054087089355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>9</v>
-      </c>
-      <c r="B33" s="7">
-        <v>622.96360275019128</v>
-      </c>
-      <c r="C33" s="7">
-        <v>315.23639724980876</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>10</v>
-      </c>
-      <c r="B34" s="7">
-        <v>840.30774637127615</v>
-      </c>
-      <c r="C34" s="7">
-        <v>99.192253628723847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>11</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1057.6518899923608</v>
-      </c>
-      <c r="C35" s="7">
-        <v>-38.251889992360816</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1274.9960336134454</v>
-      </c>
-      <c r="C36" s="7">
-        <v>-159.39603361344552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1492.3401772345305</v>
-      </c>
-      <c r="C37" s="7">
-        <v>-303.04017723453057</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>14</v>
-      </c>
-      <c r="B38" s="7">
-        <v>1709.6843208556152</v>
-      </c>
-      <c r="C38" s="7">
-        <v>-477.68432085561517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>15</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1927.0284644767003</v>
-      </c>
-      <c r="C39" s="7">
-        <v>-652.02846447670026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2144.3726080977849</v>
-      </c>
-      <c r="C40" s="7">
-        <v>-869.37260809778491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>17</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2361.7167517188695</v>
-      </c>
-      <c r="C41" s="7">
-        <v>-1046.9167517188696</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>18</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2579.0608953399546</v>
-      </c>
-      <c r="C42" s="7">
-        <v>-568.80089533995465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>19</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2796.4050389610393</v>
-      </c>
-      <c r="C43" s="7">
-        <v>-684.30503896103937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>20</v>
-      </c>
-      <c r="B44" s="7">
-        <v>3013.7491825821244</v>
-      </c>
-      <c r="C44" s="7">
-        <v>-727.34918258212429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>21</v>
-      </c>
-      <c r="B45" s="7">
-        <v>3231.0933262032086</v>
-      </c>
-      <c r="C45" s="7">
-        <v>-777.19332620320847</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>22</v>
-      </c>
-      <c r="B46" s="7">
-        <v>3448.4374698242937</v>
-      </c>
-      <c r="C46" s="7">
-        <v>-981.03746982429357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>23</v>
-      </c>
-      <c r="B47" s="7">
-        <v>3665.7816134453788</v>
-      </c>
-      <c r="C47" s="7">
-        <v>-970.58161344537893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>24</v>
-      </c>
-      <c r="B48" s="7">
-        <v>3883.1257570664629</v>
-      </c>
-      <c r="C48" s="7">
-        <v>-899.52575706646303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>25</v>
-      </c>
-      <c r="B49" s="7">
-        <v>4100.469900687548</v>
-      </c>
-      <c r="C49" s="7">
-        <v>-479.26990068754822</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>26</v>
-      </c>
-      <c r="B50" s="7">
-        <v>4317.8140443086331</v>
-      </c>
-      <c r="C50" s="7">
-        <v>-137.81404430863313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>27</v>
-      </c>
-      <c r="B51" s="7">
-        <v>4535.1581879297182</v>
-      </c>
-      <c r="C51" s="7">
-        <v>-355.15818792971822</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>28</v>
-      </c>
-      <c r="B52" s="7">
-        <v>4752.5023315508024</v>
-      </c>
-      <c r="C52" s="7">
-        <v>572.69766844919741</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>29</v>
-      </c>
-      <c r="B53" s="7">
-        <v>4969.8464751718875</v>
-      </c>
-      <c r="C53" s="7">
-        <v>445.55352482811213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>30</v>
-      </c>
-      <c r="B54" s="7">
-        <v>5187.1906187929726</v>
-      </c>
-      <c r="C54" s="7">
-        <v>432.40938120702776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>31</v>
-      </c>
-      <c r="B55" s="7">
-        <v>5404.5347624140568</v>
-      </c>
-      <c r="C55" s="7">
-        <v>387.36523758594285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>32</v>
-      </c>
-      <c r="B56" s="7">
-        <v>5621.8789060351419</v>
-      </c>
-      <c r="C56" s="7">
-        <v>188.62109396485812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>33</v>
-      </c>
-      <c r="B57" s="7">
-        <v>5839.223049656227</v>
-      </c>
-      <c r="C57" s="7">
-        <v>206.87695034377339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>34</v>
-      </c>
-      <c r="B58" s="8">
-        <v>6056.5671932773112</v>
-      </c>
-      <c r="C58" s="8">
-        <v>3403.7328067226881</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD2EFB-4744-5843-B2B7-E0DB335021CB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3048,7 +1751,7 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3135,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,14 +1846,14 @@
         <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>891.66</v>
+        <v>493.66</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3165,7 +1868,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3180,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3210,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3279,7 +1982,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,6 +2221,9 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="5"/>
+      <c r="D38">
+        <v>37</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
@@ -3527,6 +2233,9 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
+      <c r="D39">
+        <v>38</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
@@ -3536,6 +2245,9 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="5"/>
+      <c r="D40">
+        <v>39</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
@@ -3545,6 +2257,9 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5"/>
+      <c r="D41">
+        <v>40</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
@@ -3554,6 +2269,9 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
+      <c r="D42">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3561,6 +2279,9 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
+      <c r="D43">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3568,6 +2289,9 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="5"/>
+      <c r="D44">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3575,6 +2299,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
+      <c r="D45">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Deep/Energie.xlsx
+++ b/Deep/Energie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstinglhamber/Desktop/Github - Projects/ParticuleGameV2/Deep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB420E-1C8C-974D-B453-869E0D4F81B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7C49C-9A04-084D-B632-AF92E3E7358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7561177D-AFE9-A540-86E4-113EBEEF3F83}"/>
   </bookViews>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD2EFB-4744-5843-B2B7-E0DB335021CB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Deep/Energie.xlsx
+++ b/Deep/Energie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstinglhamber/Desktop/Github - Projects/ParticuleGameV2/Deep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7C49C-9A04-084D-B632-AF92E3E7358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE7FC6C-0BAE-DA40-B5EE-29C61A55FA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7561177D-AFE9-A540-86E4-113EBEEF3F83}"/>
   </bookViews>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD2EFB-4744-5843-B2B7-E0DB335021CB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
